--- a/data/final_egg_size.xlsx
+++ b/data/final_egg_size.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40c2179675f51a02/Amy Butler Research Project/Medfly-Development-Study/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="953" documentId="8_{22F449E6-1FD4-4242-A5DF-0EB0A7757D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84F67E06-3ED7-44AF-9A19-82D39FCDB57C}"/>
+  <xr:revisionPtr revIDLastSave="955" documentId="8_{22F449E6-1FD4-4242-A5DF-0EB0A7757D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{502227FB-2F6C-42FD-AEAC-DFECD78543B1}"/>
   <bookViews>
-    <workbookView xWindow="10115" yWindow="-219" windowWidth="16588" windowHeight="8663" xr2:uid="{65570875-9CB3-4DE1-B160-657D5286AADE}"/>
+    <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12165" xr2:uid="{65570875-9CB3-4DE1-B160-657D5286AADE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -447,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5BCAD4-7B4C-40A6-B8CE-8B4D1F59E09F}">
   <dimension ref="A1:I481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I481" sqref="I481"/>
+    <sheetView tabSelected="1" topLeftCell="A458" workbookViewId="0">
+      <selection activeCell="K482" sqref="K482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -513,8 +513,8 @@
         <v>19.18</v>
       </c>
       <c r="I2">
-        <f>(PI()* 4/3)*(G2*H2*H2)</f>
-        <v>155018.59475656482</v>
+        <f>(PI()* 1/6)*(G2*H2*H2)</f>
+        <v>19377.324344570603</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -543,8 +543,8 @@
         <v>19.89</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I66" si="0">(PI()* 4/3)*(G3*H3*H3)</f>
-        <v>169226.73744697234</v>
+        <f t="shared" ref="I3:I66" si="0">(PI()* 1/6)*(G3*H3*H3)</f>
+        <v>21153.342180871543</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -574,7 +574,7 @@
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>209723.92272726336</v>
+        <v>26215.49034090792</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -604,7 +604,7 @@
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>191020.24283622866</v>
+        <v>23877.530354528582</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -634,7 +634,7 @@
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>175954.25056845782</v>
+        <v>21994.281321057228</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -664,7 +664,7 @@
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>217443.96981762553</v>
+        <v>27180.496227203192</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -694,7 +694,7 @@
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>194664.63423284667</v>
+        <v>24333.079279105834</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -724,7 +724,7 @@
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>202090.52987709478</v>
+        <v>25261.316234636848</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -754,7 +754,7 @@
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>176155.28858448425</v>
+        <v>22019.411073060532</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -784,7 +784,7 @@
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>182329.5935494639</v>
+        <v>22791.199193682987</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -814,7 +814,7 @@
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>187202.55570571226</v>
+        <v>23400.319463214033</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -844,7 +844,7 @@
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>184125.29628070092</v>
+        <v>23015.662035087615</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -874,7 +874,7 @@
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>184632.08074557362</v>
+        <v>23079.010093196703</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -904,7 +904,7 @@
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>189802.63688422178</v>
+        <v>23725.329610527722</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -934,7 +934,7 @@
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>182302.54829878104</v>
+        <v>22787.81853734763</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -964,7 +964,7 @@
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
-        <v>164642.15735272606</v>
+        <v>20580.269669090758</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -994,7 +994,7 @@
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
-        <v>195959.35329087192</v>
+        <v>24494.91916135899</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>163418.22668355721</v>
+        <v>20427.278335444651</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
-        <v>192737.17167734055</v>
+        <v>24092.146459667569</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>171690.18181791026</v>
+        <v>21461.272727238782</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>179012.38216364791</v>
+        <v>22376.547770455989</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>195864.15410296738</v>
+        <v>24483.019262870923</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
-        <v>189785.30897755161</v>
+        <v>23723.163622193952</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
-        <v>187555.20775393833</v>
+        <v>23444.400969242291</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>167655.41901261118</v>
+        <v>20956.927376576397</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
-        <v>161770.96230768022</v>
+        <v>20221.370288460028</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
-        <v>182412.93485035165</v>
+        <v>22801.616856293957</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
-        <v>183527.55015051385</v>
+        <v>22940.943768814232</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
-        <v>207398.29844267588</v>
+        <v>25924.787305334485</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
-        <v>176847.42369001932</v>
+        <v>22105.927961252415</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="I32">
         <f t="shared" si="0"/>
-        <v>171058.10269606614</v>
+        <v>21382.262837008268</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="I33">
         <f t="shared" si="0"/>
-        <v>135271.0622769403</v>
+        <v>16908.882784617537</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I34">
         <f t="shared" si="0"/>
-        <v>173056.18417035454</v>
+        <v>21632.023021294317</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="I35">
         <f t="shared" si="0"/>
-        <v>145823.69377367993</v>
+        <v>18227.961721709991</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="I36">
         <f t="shared" si="0"/>
-        <v>164756.16812516889</v>
+        <v>20594.521015646111</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="I37">
         <f t="shared" si="0"/>
-        <v>167422.96751211348</v>
+        <v>20927.870939014185</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="I38">
         <f t="shared" si="0"/>
-        <v>133498.92912676971</v>
+        <v>16687.366140846214</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="I39">
         <f t="shared" si="0"/>
-        <v>144573.59493623159</v>
+        <v>18071.699367028948</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="I40">
         <f t="shared" si="0"/>
-        <v>174833.83156961444</v>
+        <v>21854.228946201805</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -1684,7 +1684,7 @@
       </c>
       <c r="I41">
         <f t="shared" si="0"/>
-        <v>158780.60487723671</v>
+        <v>19847.575609654588</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="I42">
         <f t="shared" si="0"/>
-        <v>150507.32251632976</v>
+        <v>18813.41531454122</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="I43">
         <f t="shared" si="0"/>
-        <v>131169.20655916727</v>
+        <v>16396.150819895909</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -1774,7 +1774,7 @@
       </c>
       <c r="I44">
         <f t="shared" si="0"/>
-        <v>158051.77729735422</v>
+        <v>19756.472162169277</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="I45">
         <f t="shared" si="0"/>
-        <v>151542.93656302319</v>
+        <v>18942.867070377899</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="I46">
         <f t="shared" si="0"/>
-        <v>142950.87743225257</v>
+        <v>17868.859679031571</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="I47">
         <f t="shared" si="0"/>
-        <v>163096.54443476623</v>
+        <v>20387.068054345778</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -1894,7 +1894,7 @@
       </c>
       <c r="I48">
         <f t="shared" si="0"/>
-        <v>157390.44559994101</v>
+        <v>19673.805699992627</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="I49">
         <f t="shared" si="0"/>
-        <v>163478.64040249804</v>
+        <v>20434.830050312255</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="I50">
         <f t="shared" si="0"/>
-        <v>144992.47794443849</v>
+        <v>18124.059743054811</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -1984,7 +1984,7 @@
       </c>
       <c r="I51">
         <f t="shared" si="0"/>
-        <v>146262.42042987733</v>
+        <v>18282.802553734666</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="I52">
         <f t="shared" si="0"/>
-        <v>134710.37025611414</v>
+        <v>16838.796282014267</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -2044,7 +2044,7 @@
       </c>
       <c r="I53">
         <f t="shared" si="0"/>
-        <v>167629.10335702862</v>
+        <v>20953.637919628578</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="I54">
         <f t="shared" si="0"/>
-        <v>170510.84097545649</v>
+        <v>21313.855121932062</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="I55">
         <f t="shared" si="0"/>
-        <v>155328.59312906177</v>
+        <v>19416.074141132722</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -2134,7 +2134,7 @@
       </c>
       <c r="I56">
         <f t="shared" si="0"/>
-        <v>126622.38068448803</v>
+        <v>15827.797585561004</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -2164,7 +2164,7 @@
       </c>
       <c r="I57">
         <f t="shared" si="0"/>
-        <v>135581.08583244399</v>
+        <v>16947.635729055499</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="I58">
         <f t="shared" si="0"/>
-        <v>160790.86151845584</v>
+        <v>20098.85768980698</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="I59">
         <f t="shared" si="0"/>
-        <v>151898.99438671232</v>
+        <v>18987.37429833904</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="I60">
         <f t="shared" si="0"/>
-        <v>152997.91214112777</v>
+        <v>19124.739017640972</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="I61">
         <f t="shared" si="0"/>
-        <v>134070.33415028497</v>
+        <v>16758.791768785621</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -2314,7 +2314,7 @@
       </c>
       <c r="I62">
         <f t="shared" si="0"/>
-        <v>153602.20674527212</v>
+        <v>19200.275843159015</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="I63">
         <f t="shared" si="0"/>
-        <v>170690.80904583845</v>
+        <v>21336.351130729807</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="I64">
         <f t="shared" si="0"/>
-        <v>156326.17080765762</v>
+        <v>19540.771350957202</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
@@ -2404,7 +2404,7 @@
       </c>
       <c r="I65">
         <f t="shared" si="0"/>
-        <v>169515.70762349677</v>
+        <v>21189.463452937096</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="I66">
         <f t="shared" si="0"/>
-        <v>159863.07809894823</v>
+        <v>19982.884762368529</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
@@ -2463,8 +2463,8 @@
         <v>18.690000000000001</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I130" si="1">(PI()* 4/3)*(G67*H67*H67)</f>
-        <v>148969.59926849641</v>
+        <f t="shared" ref="I67:I130" si="1">(PI()* 1/6)*(G67*H67*H67)</f>
+        <v>18621.199908562052</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="I68">
         <f t="shared" si="1"/>
-        <v>147443.2093915591</v>
+        <v>18430.401173944887</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
@@ -2524,7 +2524,7 @@
       </c>
       <c r="I69">
         <f t="shared" si="1"/>
-        <v>157370.00184492182</v>
+        <v>19671.250230615227</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="I70">
         <f t="shared" si="1"/>
-        <v>142763.36982433975</v>
+        <v>17845.421228042469</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="I71">
         <f t="shared" si="1"/>
-        <v>129536.63810971209</v>
+        <v>16192.079763714011</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
@@ -2614,7 +2614,7 @@
       </c>
       <c r="I72">
         <f t="shared" si="1"/>
-        <v>182907.64606155924</v>
+        <v>22863.455757694905</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="I73">
         <f t="shared" si="1"/>
-        <v>112963.66861580391</v>
+        <v>14120.458576975489</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
@@ -2674,7 +2674,7 @@
       </c>
       <c r="I74">
         <f t="shared" si="1"/>
-        <v>144733.4269894443</v>
+        <v>18091.678373680537</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="I75">
         <f t="shared" si="1"/>
-        <v>127537.91649612706</v>
+        <v>15942.239562015882</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="I76">
         <f t="shared" si="1"/>
-        <v>147236.64693092796</v>
+        <v>18404.580866365995</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="I77">
         <f t="shared" si="1"/>
-        <v>137403.72362823755</v>
+        <v>17175.465453529694</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="I78">
         <f t="shared" si="1"/>
-        <v>153850.79804817517</v>
+        <v>19231.349756021897</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="I79">
         <f t="shared" si="1"/>
-        <v>141140.89952600349</v>
+        <v>17642.612440750436</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="I80">
         <f t="shared" si="1"/>
-        <v>159487.32164318548</v>
+        <v>19935.915205398185</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="I81">
         <f t="shared" si="1"/>
-        <v>154769.98684091991</v>
+        <v>19346.248355114989</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -2914,7 +2914,7 @@
       </c>
       <c r="I82">
         <f t="shared" si="1"/>
-        <v>145311.60677374125</v>
+        <v>18163.950846717657</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
@@ -2944,7 +2944,7 @@
       </c>
       <c r="I83">
         <f t="shared" si="1"/>
-        <v>162369.98066979478</v>
+        <v>20296.247583724347</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="I84">
         <f t="shared" si="1"/>
-        <v>142447.43724302511</v>
+        <v>17805.929655378139</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
@@ -3004,7 +3004,7 @@
       </c>
       <c r="I85">
         <f t="shared" si="1"/>
-        <v>146973.93004308877</v>
+        <v>18371.741255386096</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
@@ -3034,7 +3034,7 @@
       </c>
       <c r="I86">
         <f t="shared" si="1"/>
-        <v>157163.87710448954</v>
+        <v>19645.484638061193</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="I87">
         <f t="shared" si="1"/>
-        <v>177464.88145428491</v>
+        <v>22183.110181785614</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="I88">
         <f t="shared" si="1"/>
-        <v>156849.63626663008</v>
+        <v>19606.204533328761</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
@@ -3124,7 +3124,7 @@
       </c>
       <c r="I89">
         <f t="shared" si="1"/>
-        <v>162551.27421162763</v>
+        <v>20318.909276453454</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
@@ -3154,7 +3154,7 @@
       </c>
       <c r="I90">
         <f t="shared" si="1"/>
-        <v>145414.35131321746</v>
+        <v>18176.793914152182</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
@@ -3184,7 +3184,7 @@
       </c>
       <c r="I91">
         <f t="shared" si="1"/>
-        <v>176711.34631632341</v>
+        <v>22088.918289540426</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="I92">
         <f t="shared" si="1"/>
-        <v>114268.7339814462</v>
+        <v>14283.591747680775</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -3244,7 +3244,7 @@
       </c>
       <c r="I93">
         <f t="shared" si="1"/>
-        <v>177193.36504919874</v>
+        <v>22149.170631149842</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
@@ -3274,7 +3274,7 @@
       </c>
       <c r="I94">
         <f t="shared" si="1"/>
-        <v>179337.41618182976</v>
+        <v>22417.17702272872</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="I95">
         <f t="shared" si="1"/>
-        <v>129056.58197584414</v>
+        <v>16132.072746980517</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -3334,7 +3334,7 @@
       </c>
       <c r="I96">
         <f t="shared" si="1"/>
-        <v>171004.66538207862</v>
+        <v>21375.583172759827</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="I97">
         <f t="shared" si="1"/>
-        <v>142028.85812317001</v>
+        <v>17753.607265396251</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
@@ -3394,7 +3394,7 @@
       </c>
       <c r="I98">
         <f t="shared" si="1"/>
-        <v>153886.57045475411</v>
+        <v>19235.821306844264</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
@@ -3424,7 +3424,7 @@
       </c>
       <c r="I99">
         <f t="shared" si="1"/>
-        <v>146317.77478977875</v>
+        <v>18289.721848722344</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
@@ -3454,7 +3454,7 @@
       </c>
       <c r="I100">
         <f t="shared" si="1"/>
-        <v>166954.89188371797</v>
+        <v>20869.361485464746</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="I101">
         <f t="shared" si="1"/>
-        <v>136174.75292710724</v>
+        <v>17021.844115888405</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
@@ -3514,7 +3514,7 @@
       </c>
       <c r="I102">
         <f t="shared" si="1"/>
-        <v>138880.70972388322</v>
+        <v>17360.088715485403</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="I103">
         <f t="shared" si="1"/>
-        <v>124729.31076901135</v>
+        <v>15591.163846126419</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
@@ -3574,7 +3574,7 @@
       </c>
       <c r="I104">
         <f t="shared" si="1"/>
-        <v>144670.06034514948</v>
+        <v>18083.757543143685</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
@@ -3604,7 +3604,7 @@
       </c>
       <c r="I105">
         <f t="shared" si="1"/>
-        <v>145510.09694974808</v>
+        <v>18188.76211871851</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
@@ -3634,7 +3634,7 @@
       </c>
       <c r="I106">
         <f t="shared" si="1"/>
-        <v>133165.68368910809</v>
+        <v>16645.710461138511</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
@@ -3664,7 +3664,7 @@
       </c>
       <c r="I107">
         <f t="shared" si="1"/>
-        <v>139263.58152258155</v>
+        <v>17407.947690322693</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="I108">
         <f t="shared" si="1"/>
-        <v>106428.2281170059</v>
+        <v>13303.528514625737</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
@@ -3724,7 +3724,7 @@
       </c>
       <c r="I109">
         <f t="shared" si="1"/>
-        <v>142932.89224156737</v>
+        <v>17866.611530195922</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
@@ -3754,7 +3754,7 @@
       </c>
       <c r="I110">
         <f t="shared" si="1"/>
-        <v>134647.06010184405</v>
+        <v>16830.882512730506</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="I111">
         <f t="shared" si="1"/>
-        <v>156628.64605849254</v>
+        <v>19578.580757311567</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
@@ -3814,7 +3814,7 @@
       </c>
       <c r="I112">
         <f t="shared" si="1"/>
-        <v>158062.51659307949</v>
+        <v>19757.814574134936</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
@@ -3844,7 +3844,7 @@
       </c>
       <c r="I113">
         <f t="shared" si="1"/>
-        <v>127004.31546338396</v>
+        <v>15875.539432922995</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
@@ -3874,7 +3874,7 @@
       </c>
       <c r="I114">
         <f t="shared" si="1"/>
-        <v>121143.08669760163</v>
+        <v>15142.885837200203</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="I115">
         <f t="shared" si="1"/>
-        <v>148429.55451087278</v>
+        <v>18553.694313859098</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
@@ -3934,7 +3934,7 @@
       </c>
       <c r="I116">
         <f t="shared" si="1"/>
-        <v>150556.52901816915</v>
+        <v>18819.566127271144</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
@@ -3964,7 +3964,7 @@
       </c>
       <c r="I117">
         <f t="shared" si="1"/>
-        <v>143416.03359535034</v>
+        <v>17927.004199418792</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
@@ -3994,7 +3994,7 @@
       </c>
       <c r="I118">
         <f t="shared" si="1"/>
-        <v>154967.73932489494</v>
+        <v>19370.967415611867</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="I119">
         <f t="shared" si="1"/>
-        <v>131753.72294422408</v>
+        <v>16469.21536802801</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="I120">
         <f t="shared" si="1"/>
-        <v>162240.22221178649</v>
+        <v>20280.027776473311</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
@@ -4084,7 +4084,7 @@
       </c>
       <c r="I121">
         <f t="shared" si="1"/>
-        <v>160863.20445113297</v>
+        <v>20107.900556391622</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="I122">
         <f t="shared" si="1"/>
-        <v>143811.23464981597</v>
+        <v>17976.404331226997</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
@@ -4144,7 +4144,7 @@
       </c>
       <c r="I123">
         <f t="shared" si="1"/>
-        <v>150260.65031603663</v>
+        <v>18782.581289504578</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
@@ -4174,7 +4174,7 @@
       </c>
       <c r="I124">
         <f t="shared" si="1"/>
-        <v>165571.75592582583</v>
+        <v>20696.469490728228</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
@@ -4204,7 +4204,7 @@
       </c>
       <c r="I125">
         <f t="shared" si="1"/>
-        <v>156844.88523187133</v>
+        <v>19605.610653983917</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
@@ -4234,7 +4234,7 @@
       </c>
       <c r="I126">
         <f t="shared" si="1"/>
-        <v>170394.90901857504</v>
+        <v>21299.36362732188</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="I127">
         <f t="shared" si="1"/>
-        <v>155022.85811980171</v>
+        <v>19377.857264975213</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
@@ -4294,7 +4294,7 @@
       </c>
       <c r="I128">
         <f t="shared" si="1"/>
-        <v>156034.83822466712</v>
+        <v>19504.354778083391</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -4324,7 +4324,7 @@
       </c>
       <c r="I129">
         <f t="shared" si="1"/>
-        <v>165014.18569305318</v>
+        <v>20626.773211631647</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -4354,7 +4354,7 @@
       </c>
       <c r="I130">
         <f t="shared" si="1"/>
-        <v>160684.37644796987</v>
+        <v>20085.547055996234</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -4383,8 +4383,8 @@
         <v>21.27</v>
       </c>
       <c r="I131">
-        <f t="shared" ref="I131:I194" si="2">(PI()* 4/3)*(G131*H131*H131)</f>
-        <v>166973.97661507671</v>
+        <f t="shared" ref="I131:I194" si="2">(PI()* 1/6)*(G131*H131*H131)</f>
+        <v>20871.747076884589</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -4414,7 +4414,7 @@
       </c>
       <c r="I132">
         <f t="shared" si="2"/>
-        <v>152730.85082439493</v>
+        <v>19091.356353049367</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -4444,7 +4444,7 @@
       </c>
       <c r="I133">
         <f t="shared" si="2"/>
-        <v>115874.40893589891</v>
+        <v>14484.301116987364</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -4474,7 +4474,7 @@
       </c>
       <c r="I134">
         <f t="shared" si="2"/>
-        <v>154707.75896113017</v>
+        <v>19338.469870141271</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="I135">
         <f t="shared" si="2"/>
-        <v>159593.40490815989</v>
+        <v>19949.175613519987</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -4534,7 +4534,7 @@
       </c>
       <c r="I136">
         <f t="shared" si="2"/>
-        <v>148806.60834805926</v>
+        <v>18600.826043507408</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="I137">
         <f t="shared" si="2"/>
-        <v>125214.89138099428</v>
+        <v>15651.861422624284</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -4594,7 +4594,7 @@
       </c>
       <c r="I138">
         <f t="shared" si="2"/>
-        <v>171498.36800381431</v>
+        <v>21437.296000476788</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -4624,7 +4624,7 @@
       </c>
       <c r="I139">
         <f t="shared" si="2"/>
-        <v>162226.68417588589</v>
+        <v>20278.335521985737</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -4654,7 +4654,7 @@
       </c>
       <c r="I140">
         <f t="shared" si="2"/>
-        <v>146670.49506920853</v>
+        <v>18333.811883651066</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -4684,7 +4684,7 @@
       </c>
       <c r="I141">
         <f t="shared" si="2"/>
-        <v>135073.38148829839</v>
+        <v>16884.172686037298</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="I142">
         <f t="shared" si="2"/>
-        <v>160789.49047296753</v>
+        <v>20098.686309120942</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="I143">
         <f t="shared" si="2"/>
-        <v>151500.75488436315</v>
+        <v>18937.594360545394</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -4774,7 +4774,7 @@
       </c>
       <c r="I144">
         <f t="shared" si="2"/>
-        <v>126755.91618719032</v>
+        <v>15844.48952339879</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
@@ -4804,7 +4804,7 @@
       </c>
       <c r="I145">
         <f t="shared" si="2"/>
-        <v>147559.51115159498</v>
+        <v>18444.938893949373</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
@@ -4834,7 +4834,7 @@
       </c>
       <c r="I146">
         <f t="shared" si="2"/>
-        <v>142895.17215226297</v>
+        <v>17861.896519032871</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="I147">
         <f t="shared" si="2"/>
-        <v>134248.96677151779</v>
+        <v>16781.120846439724</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
@@ -4894,7 +4894,7 @@
       </c>
       <c r="I148">
         <f t="shared" si="2"/>
-        <v>135261.00676770566</v>
+        <v>16907.625845963208</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
@@ -4924,7 +4924,7 @@
       </c>
       <c r="I149">
         <f t="shared" si="2"/>
-        <v>161542.98635358718</v>
+        <v>20192.873294198398</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
@@ -4954,7 +4954,7 @@
       </c>
       <c r="I150">
         <f t="shared" si="2"/>
-        <v>148400.54271534216</v>
+        <v>18550.06783941777</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="I151">
         <f t="shared" si="2"/>
-        <v>154938.82114044786</v>
+        <v>19367.352642555983</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
@@ -5014,7 +5014,7 @@
       </c>
       <c r="I152">
         <f t="shared" si="2"/>
-        <v>117181.62367870378</v>
+        <v>14647.702959837972</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
@@ -5044,7 +5044,7 @@
       </c>
       <c r="I153">
         <f t="shared" si="2"/>
-        <v>127632.36458787112</v>
+        <v>15954.045573483891</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
@@ -5074,7 +5074,7 @@
       </c>
       <c r="I154">
         <f t="shared" si="2"/>
-        <v>111397.60381657186</v>
+        <v>13924.700477071483</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
@@ -5104,7 +5104,7 @@
       </c>
       <c r="I155">
         <f t="shared" si="2"/>
-        <v>156240.75933125246</v>
+        <v>19530.094916406557</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
@@ -5134,7 +5134,7 @@
       </c>
       <c r="I156">
         <f t="shared" si="2"/>
-        <v>129248.53846432315</v>
+        <v>16156.067308040394</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="I157">
         <f t="shared" si="2"/>
-        <v>152747.73383546871</v>
+        <v>19093.466729433589</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="I158">
         <f t="shared" si="2"/>
-        <v>126565.62009744935</v>
+        <v>15820.702512181169</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="I159">
         <f t="shared" si="2"/>
-        <v>129607.45012753397</v>
+        <v>16200.931265941746</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
@@ -5254,7 +5254,7 @@
       </c>
       <c r="I160">
         <f t="shared" si="2"/>
-        <v>133135.57046375948</v>
+        <v>16641.946307969934</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="I161">
         <f t="shared" si="2"/>
-        <v>127756.31144713983</v>
+        <v>15969.538930892479</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
@@ -5314,7 +5314,7 @@
       </c>
       <c r="I162">
         <f t="shared" si="2"/>
-        <v>132912.87162296468</v>
+        <v>16614.108952870585</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
@@ -5344,7 +5344,7 @@
       </c>
       <c r="I163">
         <f t="shared" si="2"/>
-        <v>128729.99227449053</v>
+        <v>16091.249034311317</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
@@ -5374,7 +5374,7 @@
       </c>
       <c r="I164">
         <f t="shared" si="2"/>
-        <v>127710.24232403109</v>
+        <v>15963.780290503886</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
@@ -5404,7 +5404,7 @@
       </c>
       <c r="I165">
         <f t="shared" si="2"/>
-        <v>144699.44692011731</v>
+        <v>18087.430865014663</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
@@ -5434,7 +5434,7 @@
       </c>
       <c r="I166">
         <f t="shared" si="2"/>
-        <v>123543.00543871247</v>
+        <v>15442.875679839059</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="I167">
         <f t="shared" si="2"/>
-        <v>135361.83753690188</v>
+        <v>16920.229692112734</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
@@ -5494,7 +5494,7 @@
       </c>
       <c r="I168">
         <f t="shared" si="2"/>
-        <v>127828.98097141169</v>
+        <v>15978.622621426461</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
@@ -5524,7 +5524,7 @@
       </c>
       <c r="I169">
         <f t="shared" si="2"/>
-        <v>126041.05917349622</v>
+        <v>15755.132396687028</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
@@ -5554,7 +5554,7 @@
       </c>
       <c r="I170">
         <f t="shared" si="2"/>
-        <v>123815.12319070919</v>
+        <v>15476.890398838648</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
@@ -5584,7 +5584,7 @@
       </c>
       <c r="I171">
         <f t="shared" si="2"/>
-        <v>134568.02382171166</v>
+        <v>16821.002977713957</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
@@ -5614,7 +5614,7 @@
       </c>
       <c r="I172">
         <f t="shared" si="2"/>
-        <v>137105.24970249063</v>
+        <v>17138.156212811329</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="I173">
         <f t="shared" si="2"/>
-        <v>133314.22436404656</v>
+        <v>16664.27804550582</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
@@ -5674,7 +5674,7 @@
       </c>
       <c r="I174">
         <f t="shared" si="2"/>
-        <v>138662.73696522391</v>
+        <v>17332.842120652989</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="I175">
         <f t="shared" si="2"/>
-        <v>132114.94973502593</v>
+        <v>16514.368716878242</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
@@ -5734,7 +5734,7 @@
       </c>
       <c r="I176">
         <f t="shared" si="2"/>
-        <v>126581.29222142832</v>
+        <v>15822.66152767854</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
@@ -5764,7 +5764,7 @@
       </c>
       <c r="I177">
         <f t="shared" si="2"/>
-        <v>88159.429660725189</v>
+        <v>11019.928707590649</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
@@ -5794,7 +5794,7 @@
       </c>
       <c r="I178">
         <f t="shared" si="2"/>
-        <v>131144.2126009356</v>
+        <v>16393.02657511695</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
@@ -5824,7 +5824,7 @@
       </c>
       <c r="I179">
         <f t="shared" si="2"/>
-        <v>141281.14167975867</v>
+        <v>17660.142709969834</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
@@ -5854,7 +5854,7 @@
       </c>
       <c r="I180">
         <f t="shared" si="2"/>
-        <v>135768.0533796357</v>
+        <v>16971.006672454463</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
@@ -5884,7 +5884,7 @@
       </c>
       <c r="I181">
         <f t="shared" si="2"/>
-        <v>147462.99524681119</v>
+        <v>18432.874405851398</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
@@ -5914,7 +5914,7 @@
       </c>
       <c r="I182">
         <f t="shared" si="2"/>
-        <v>128219.96509537988</v>
+        <v>16027.495636922486</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="I183">
         <f t="shared" si="2"/>
-        <v>154238.5418245719</v>
+        <v>19279.817728071488</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
@@ -5974,7 +5974,7 @@
       </c>
       <c r="I184">
         <f t="shared" si="2"/>
-        <v>151328.0954025641</v>
+        <v>18916.011925320512</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
@@ -6004,7 +6004,7 @@
       </c>
       <c r="I185">
         <f t="shared" si="2"/>
-        <v>166798.15583655497</v>
+        <v>20849.769479569371</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
@@ -6034,7 +6034,7 @@
       </c>
       <c r="I186">
         <f t="shared" si="2"/>
-        <v>140812.45285017625</v>
+        <v>17601.556606272032</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
@@ -6064,7 +6064,7 @@
       </c>
       <c r="I187">
         <f t="shared" si="2"/>
-        <v>145702.64818360435</v>
+        <v>18212.831022950544</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
@@ -6094,7 +6094,7 @@
       </c>
       <c r="I188">
         <f t="shared" si="2"/>
-        <v>151515.43059149454</v>
+        <v>18939.428823936818</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
@@ -6124,7 +6124,7 @@
       </c>
       <c r="I189">
         <f t="shared" si="2"/>
-        <v>171844.02564785563</v>
+        <v>21480.503205981953</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
@@ -6154,7 +6154,7 @@
       </c>
       <c r="I190">
         <f t="shared" si="2"/>
-        <v>175618.72950349681</v>
+        <v>21952.341187937101</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="I191">
         <f t="shared" si="2"/>
-        <v>175118.74295922683</v>
+        <v>21889.842869903354</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
@@ -6214,7 +6214,7 @@
       </c>
       <c r="I192">
         <f t="shared" si="2"/>
-        <v>141657.32774622244</v>
+        <v>17707.165968277804</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
@@ -6244,7 +6244,7 @@
       </c>
       <c r="I193">
         <f t="shared" si="2"/>
-        <v>148763.70212597988</v>
+        <v>18595.462765747485</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="I194">
         <f t="shared" si="2"/>
-        <v>169031.71511592178</v>
+        <v>21128.964389490222</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
@@ -6303,8 +6303,8 @@
         <v>19.3</v>
       </c>
       <c r="I195">
-        <f t="shared" ref="I195:I258" si="3">(PI()* 4/3)*(G195*H195*H195)</f>
-        <v>154155.9073820312</v>
+        <f t="shared" ref="I195:I258" si="3">(PI()* 1/6)*(G195*H195*H195)</f>
+        <v>19269.488422753901</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
@@ -6334,7 +6334,7 @@
       </c>
       <c r="I196">
         <f t="shared" si="3"/>
-        <v>141263.60604260463</v>
+        <v>17657.950755325579</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
@@ -6364,7 +6364,7 @@
       </c>
       <c r="I197">
         <f t="shared" si="3"/>
-        <v>156951.1515930543</v>
+        <v>19618.893949131787</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
@@ -6394,7 +6394,7 @@
       </c>
       <c r="I198">
         <f t="shared" si="3"/>
-        <v>137948.12070224679</v>
+        <v>17243.515087780848</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="I199">
         <f t="shared" si="3"/>
-        <v>136179.61410610451</v>
+        <v>17022.451763263063</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
@@ -6454,7 +6454,7 @@
       </c>
       <c r="I200">
         <f t="shared" si="3"/>
-        <v>145818.38270604826</v>
+        <v>18227.297838256032</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
@@ -6484,7 +6484,7 @@
       </c>
       <c r="I201">
         <f t="shared" si="3"/>
-        <v>168194.3501552261</v>
+        <v>21024.293769403263</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
@@ -6514,7 +6514,7 @@
       </c>
       <c r="I202">
         <f t="shared" si="3"/>
-        <v>153228.00793722374</v>
+        <v>19153.500992152967</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
@@ -6544,7 +6544,7 @@
       </c>
       <c r="I203">
         <f t="shared" si="3"/>
-        <v>139203.94916799918</v>
+        <v>17400.493645999897</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
@@ -6574,7 +6574,7 @@
       </c>
       <c r="I204">
         <f t="shared" si="3"/>
-        <v>138177.39086684946</v>
+        <v>17272.173858356182</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="I205">
         <f t="shared" si="3"/>
-        <v>146868.43388732706</v>
+        <v>18358.554235915883</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
@@ -6634,7 +6634,7 @@
       </c>
       <c r="I206">
         <f t="shared" si="3"/>
-        <v>144403.92305459184</v>
+        <v>18050.49038182398</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="I207">
         <f t="shared" si="3"/>
-        <v>156929.10645935105</v>
+        <v>19616.138307418882</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
@@ -6694,7 +6694,7 @@
       </c>
       <c r="I208">
         <f t="shared" si="3"/>
-        <v>159348.60412528901</v>
+        <v>19918.575515661127</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
@@ -6724,7 +6724,7 @@
       </c>
       <c r="I209">
         <f t="shared" si="3"/>
-        <v>158926.26754333402</v>
+        <v>19865.783442916752</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
@@ -6754,7 +6754,7 @@
       </c>
       <c r="I210">
         <f t="shared" si="3"/>
-        <v>133541.86453633921</v>
+        <v>16692.733067042402</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
@@ -6784,7 +6784,7 @@
       </c>
       <c r="I211">
         <f t="shared" si="3"/>
-        <v>172679.78910839232</v>
+        <v>21584.97363854904</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
@@ -6814,7 +6814,7 @@
       </c>
       <c r="I212">
         <f t="shared" si="3"/>
-        <v>163670.80384653472</v>
+        <v>20458.85048081684</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
@@ -6844,7 +6844,7 @@
       </c>
       <c r="I213">
         <f t="shared" si="3"/>
-        <v>155056.78452653732</v>
+        <v>19382.098065817165</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
@@ -6874,7 +6874,7 @@
       </c>
       <c r="I214">
         <f t="shared" si="3"/>
-        <v>165317.28213309788</v>
+        <v>20664.660266637235</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="I215">
         <f t="shared" si="3"/>
-        <v>161157.48684720634</v>
+        <v>20144.685855900792</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
@@ -6934,7 +6934,7 @@
       </c>
       <c r="I216">
         <f t="shared" si="3"/>
-        <v>144353.99117157509</v>
+        <v>18044.248896446887</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
@@ -6964,7 +6964,7 @@
       </c>
       <c r="I217">
         <f t="shared" si="3"/>
-        <v>143432.61583453219</v>
+        <v>17929.076979316524</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
@@ -6994,7 +6994,7 @@
       </c>
       <c r="I218">
         <f t="shared" si="3"/>
-        <v>155896.15646647263</v>
+        <v>19487.019558309079</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
@@ -7024,7 +7024,7 @@
       </c>
       <c r="I219">
         <f t="shared" si="3"/>
-        <v>149977.30233372512</v>
+        <v>18747.16279171564</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
@@ -7054,7 +7054,7 @@
       </c>
       <c r="I220">
         <f t="shared" si="3"/>
-        <v>174006.9159146981</v>
+        <v>21750.864489337262</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
@@ -7084,7 +7084,7 @@
       </c>
       <c r="I221">
         <f t="shared" si="3"/>
-        <v>170348.3828858886</v>
+        <v>21293.547860736075</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
@@ -7114,7 +7114,7 @@
       </c>
       <c r="I222">
         <f t="shared" si="3"/>
-        <v>162540.45914487634</v>
+        <v>20317.557393109542</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="I223">
         <f t="shared" si="3"/>
-        <v>165366.24378758343</v>
+        <v>20670.780473447929</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
@@ -7174,7 +7174,7 @@
       </c>
       <c r="I224">
         <f t="shared" si="3"/>
-        <v>159710.01248339101</v>
+        <v>19963.751560423876</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
@@ -7204,7 +7204,7 @@
       </c>
       <c r="I225">
         <f t="shared" si="3"/>
-        <v>168943.55185986828</v>
+        <v>21117.943982483535</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
@@ -7234,7 +7234,7 @@
       </c>
       <c r="I226">
         <f t="shared" si="3"/>
-        <v>170625.21255772124</v>
+        <v>21328.151569715155</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
@@ -7264,7 +7264,7 @@
       </c>
       <c r="I227">
         <f t="shared" si="3"/>
-        <v>159228.05112856394</v>
+        <v>19903.506391070492</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
@@ -7294,7 +7294,7 @@
       </c>
       <c r="I228">
         <f t="shared" si="3"/>
-        <v>159105.9324709689</v>
+        <v>19888.241558871112</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
@@ -7324,7 +7324,7 @@
       </c>
       <c r="I229">
         <f t="shared" si="3"/>
-        <v>165951.98115890822</v>
+        <v>20743.997644863528</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
@@ -7354,7 +7354,7 @@
       </c>
       <c r="I230">
         <f t="shared" si="3"/>
-        <v>159463.32399708164</v>
+        <v>19932.915499635204</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="I231">
         <f t="shared" si="3"/>
-        <v>138618.33278987941</v>
+        <v>17327.291598734926</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
@@ -7414,7 +7414,7 @@
       </c>
       <c r="I232">
         <f t="shared" si="3"/>
-        <v>159712.37696330828</v>
+        <v>19964.047120413536</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
@@ -7444,7 +7444,7 @@
       </c>
       <c r="I233">
         <f t="shared" si="3"/>
-        <v>167586.46730353986</v>
+        <v>20948.308412942482</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
@@ -7474,7 +7474,7 @@
       </c>
       <c r="I234">
         <f t="shared" si="3"/>
-        <v>177648.60190157537</v>
+        <v>22206.075237696921</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
@@ -7504,7 +7504,7 @@
       </c>
       <c r="I235">
         <f t="shared" si="3"/>
-        <v>168806.81261962088</v>
+        <v>21100.851577452609</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
@@ -7534,7 +7534,7 @@
       </c>
       <c r="I236">
         <f t="shared" si="3"/>
-        <v>153617.51136993125</v>
+        <v>19202.188921241406</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
@@ -7564,7 +7564,7 @@
       </c>
       <c r="I237">
         <f t="shared" si="3"/>
-        <v>171656.09939968339</v>
+        <v>21457.012424960423</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
@@ -7594,7 +7594,7 @@
       </c>
       <c r="I238">
         <f t="shared" si="3"/>
-        <v>169254.38151872528</v>
+        <v>21156.79768984066</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="I239">
         <f t="shared" si="3"/>
-        <v>175584.7146420783</v>
+        <v>21948.089330259787</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
@@ -7654,7 +7654,7 @@
       </c>
       <c r="I240">
         <f t="shared" si="3"/>
-        <v>168823.6544716421</v>
+        <v>21102.956808955263</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
@@ -7684,7 +7684,7 @@
       </c>
       <c r="I241">
         <f t="shared" si="3"/>
-        <v>167107.79497840392</v>
+        <v>20888.47437230049</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
@@ -7714,7 +7714,7 @@
       </c>
       <c r="I242">
         <f t="shared" si="3"/>
-        <v>180797.21652577832</v>
+        <v>22599.65206572229</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
@@ -7744,7 +7744,7 @@
       </c>
       <c r="I243">
         <f t="shared" si="3"/>
-        <v>159217.88609084304</v>
+        <v>19902.23576135538</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
@@ -7774,7 +7774,7 @@
       </c>
       <c r="I244">
         <f t="shared" si="3"/>
-        <v>155922.45592819224</v>
+        <v>19490.30699102403</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
@@ -7804,7 +7804,7 @@
       </c>
       <c r="I245">
         <f t="shared" si="3"/>
-        <v>136454.95781298957</v>
+        <v>17056.869726623696</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
@@ -7834,7 +7834,7 @@
       </c>
       <c r="I246">
         <f t="shared" si="3"/>
-        <v>155559.86769679806</v>
+        <v>19444.983462099757</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="I247">
         <f t="shared" si="3"/>
-        <v>159149.33878433326</v>
+        <v>19893.667348041658</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
@@ -7894,7 +7894,7 @@
       </c>
       <c r="I248">
         <f t="shared" si="3"/>
-        <v>144112.32083917587</v>
+        <v>18014.040104896983</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
@@ -7924,7 +7924,7 @@
       </c>
       <c r="I249">
         <f t="shared" si="3"/>
-        <v>173158.55735263505</v>
+        <v>21644.819669079381</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
@@ -7954,7 +7954,7 @@
       </c>
       <c r="I250">
         <f t="shared" si="3"/>
-        <v>187896.02722381821</v>
+        <v>23487.003402977276</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
@@ -7984,7 +7984,7 @@
       </c>
       <c r="I251">
         <f t="shared" si="3"/>
-        <v>146868.26682161854</v>
+        <v>18358.533352702318</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
@@ -8014,7 +8014,7 @@
       </c>
       <c r="I252">
         <f t="shared" si="3"/>
-        <v>184721.80004922368</v>
+        <v>23090.225006152959</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
@@ -8044,7 +8044,7 @@
       </c>
       <c r="I253">
         <f t="shared" si="3"/>
-        <v>163751.13305959565</v>
+        <v>20468.891632449457</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
@@ -8074,7 +8074,7 @@
       </c>
       <c r="I254">
         <f t="shared" si="3"/>
-        <v>166077.88610585727</v>
+        <v>20759.735763232158</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="I255">
         <f t="shared" si="3"/>
-        <v>186759.10260295446</v>
+        <v>23344.887825369307</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
@@ -8134,7 +8134,7 @@
       </c>
       <c r="I256">
         <f t="shared" si="3"/>
-        <v>164083.01438421675</v>
+        <v>20510.376798027093</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -8164,7 +8164,7 @@
       </c>
       <c r="I257">
         <f t="shared" si="3"/>
-        <v>165195.85589927886</v>
+        <v>20649.481987409858</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -8194,7 +8194,7 @@
       </c>
       <c r="I258">
         <f t="shared" si="3"/>
-        <v>153149.99220137045</v>
+        <v>19143.749025171306</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -8223,8 +8223,8 @@
         <v>20.260000000000002</v>
       </c>
       <c r="I259">
-        <f t="shared" ref="I259:I322" si="4">(PI()* 4/3)*(G259*H259*H259)</f>
-        <v>179776.55996613338</v>
+        <f t="shared" ref="I259:I322" si="4">(PI()* 1/6)*(G259*H259*H259)</f>
+        <v>22472.069995766673</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -8254,7 +8254,7 @@
       </c>
       <c r="I260">
         <f t="shared" si="4"/>
-        <v>133439.77130347438</v>
+        <v>16679.971412934297</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -8284,7 +8284,7 @@
       </c>
       <c r="I261">
         <f t="shared" si="4"/>
-        <v>172372.33727739003</v>
+        <v>21546.542159673754</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -8314,7 +8314,7 @@
       </c>
       <c r="I262">
         <f t="shared" si="4"/>
-        <v>143967.13021203547</v>
+        <v>17995.891276504433</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="I263">
         <f t="shared" si="4"/>
-        <v>157215.4835234113</v>
+        <v>19651.935440426412</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -8374,7 +8374,7 @@
       </c>
       <c r="I264">
         <f t="shared" si="4"/>
-        <v>151177.03920831115</v>
+        <v>18897.129901038894</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -8404,7 +8404,7 @@
       </c>
       <c r="I265">
         <f t="shared" si="4"/>
-        <v>172471.11440003494</v>
+        <v>21558.889300004368</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -8434,7 +8434,7 @@
       </c>
       <c r="I266">
         <f t="shared" si="4"/>
-        <v>151065.28272128166</v>
+        <v>18883.160340160208</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -8464,7 +8464,7 @@
       </c>
       <c r="I267">
         <f t="shared" si="4"/>
-        <v>172113.97041466815</v>
+        <v>21514.246301833518</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -8494,7 +8494,7 @@
       </c>
       <c r="I268">
         <f t="shared" si="4"/>
-        <v>162590.06835700601</v>
+        <v>20323.758544625751</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -8524,7 +8524,7 @@
       </c>
       <c r="I269">
         <f t="shared" si="4"/>
-        <v>168452.54473300686</v>
+        <v>21056.568091625857</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -8554,7 +8554,7 @@
       </c>
       <c r="I270">
         <f t="shared" si="4"/>
-        <v>166825.79850087434</v>
+        <v>20853.224812609293</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="I271">
         <f t="shared" si="4"/>
-        <v>128409.76949236028</v>
+        <v>16051.221186545035</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -8614,7 +8614,7 @@
       </c>
       <c r="I272">
         <f t="shared" si="4"/>
-        <v>131226.47725707703</v>
+        <v>16403.309657134629</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
@@ -8644,7 +8644,7 @@
       </c>
       <c r="I273">
         <f t="shared" si="4"/>
-        <v>139975.4751557014</v>
+        <v>17496.934394462674</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
@@ -8674,7 +8674,7 @@
       </c>
       <c r="I274">
         <f t="shared" si="4"/>
-        <v>149604.90002658602</v>
+        <v>18700.612503323253</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
@@ -8704,7 +8704,7 @@
       </c>
       <c r="I275">
         <f t="shared" si="4"/>
-        <v>138679.01614543449</v>
+        <v>17334.877018179312</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
@@ -8734,7 +8734,7 @@
       </c>
       <c r="I276">
         <f t="shared" si="4"/>
-        <v>136418.05407700813</v>
+        <v>17052.256759626016</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
@@ -8764,7 +8764,7 @@
       </c>
       <c r="I277">
         <f t="shared" si="4"/>
-        <v>112448.3902561953</v>
+        <v>14056.048782024413</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
@@ -8794,7 +8794,7 @@
       </c>
       <c r="I278">
         <f t="shared" si="4"/>
-        <v>145945.40373939226</v>
+        <v>18243.175467424033</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="I279">
         <f t="shared" si="4"/>
-        <v>138835.03189242262</v>
+        <v>17354.378986552827</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
@@ -8854,7 +8854,7 @@
       </c>
       <c r="I280">
         <f t="shared" si="4"/>
-        <v>129170.72979712485</v>
+        <v>16146.341224640606</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
@@ -8884,7 +8884,7 @@
       </c>
       <c r="I281">
         <f t="shared" si="4"/>
-        <v>147173.6965183382</v>
+        <v>18396.712064792275</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
@@ -8914,7 +8914,7 @@
       </c>
       <c r="I282">
         <f t="shared" si="4"/>
-        <v>128303.77794932503</v>
+        <v>16037.972243665628</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
@@ -8944,7 +8944,7 @@
       </c>
       <c r="I283">
         <f t="shared" si="4"/>
-        <v>141666.19372281473</v>
+        <v>17708.274215351841</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
@@ -8974,7 +8974,7 @@
       </c>
       <c r="I284">
         <f t="shared" si="4"/>
-        <v>113680.86329278037</v>
+        <v>14210.107911597546</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
@@ -9004,7 +9004,7 @@
       </c>
       <c r="I285">
         <f t="shared" si="4"/>
-        <v>130006.37358811421</v>
+        <v>16250.796698514276</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
@@ -9034,7 +9034,7 @@
       </c>
       <c r="I286">
         <f t="shared" si="4"/>
-        <v>126988.17511643593</v>
+        <v>15873.521889554491</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="I287">
         <f t="shared" si="4"/>
-        <v>160068.07720254402</v>
+        <v>20008.509650318003</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
@@ -9094,7 +9094,7 @@
       </c>
       <c r="I288">
         <f t="shared" si="4"/>
-        <v>155041.93285251825</v>
+        <v>19380.241606564781</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
@@ -9124,7 +9124,7 @@
       </c>
       <c r="I289">
         <f t="shared" si="4"/>
-        <v>138359.00604493814</v>
+        <v>17294.875755617268</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
@@ -9154,7 +9154,7 @@
       </c>
       <c r="I290">
         <f t="shared" si="4"/>
-        <v>150755.91328725638</v>
+        <v>18844.489160907047</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
@@ -9184,7 +9184,7 @@
       </c>
       <c r="I291">
         <f t="shared" si="4"/>
-        <v>143189.50785069165</v>
+        <v>17898.688481336456</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
@@ -9214,7 +9214,7 @@
       </c>
       <c r="I292">
         <f t="shared" si="4"/>
-        <v>136243.66130733269</v>
+        <v>17030.457663416586</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
@@ -9244,7 +9244,7 @@
       </c>
       <c r="I293">
         <f t="shared" si="4"/>
-        <v>139223.65354709292</v>
+        <v>17402.956693386615</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
@@ -9274,7 +9274,7 @@
       </c>
       <c r="I294">
         <f t="shared" si="4"/>
-        <v>144978.01754950121</v>
+        <v>18122.252193687651</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="I295">
         <f t="shared" si="4"/>
-        <v>160545.09428115378</v>
+        <v>20068.136785144223</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
@@ -9334,7 +9334,7 @@
       </c>
       <c r="I296">
         <f t="shared" si="4"/>
-        <v>142537.44400659177</v>
+        <v>17817.180500823972</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
@@ -9364,7 +9364,7 @@
       </c>
       <c r="I297">
         <f t="shared" si="4"/>
-        <v>137568.80455392494</v>
+        <v>17196.100569240618</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
@@ -9394,7 +9394,7 @@
       </c>
       <c r="I298">
         <f t="shared" si="4"/>
-        <v>144017.54825860978</v>
+        <v>18002.193532326222</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
@@ -9424,7 +9424,7 @@
       </c>
       <c r="I299">
         <f t="shared" si="4"/>
-        <v>157983.71476791246</v>
+        <v>19747.964345989058</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
@@ -9454,7 +9454,7 @@
       </c>
       <c r="I300">
         <f t="shared" si="4"/>
-        <v>120680.06612216918</v>
+        <v>15085.008265271148</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
@@ -9484,7 +9484,7 @@
       </c>
       <c r="I301">
         <f t="shared" si="4"/>
-        <v>121547.64310501916</v>
+        <v>15193.455388127395</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
@@ -9514,7 +9514,7 @@
       </c>
       <c r="I302">
         <f t="shared" si="4"/>
-        <v>168635.08991467449</v>
+        <v>21079.386239334312</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="I303">
         <f t="shared" si="4"/>
-        <v>178014.10886941789</v>
+        <v>22251.763608677236</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
@@ -9574,7 +9574,7 @@
       </c>
       <c r="I304">
         <f t="shared" si="4"/>
-        <v>171239.34913076431</v>
+        <v>21404.918641345539</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
@@ -9604,7 +9604,7 @@
       </c>
       <c r="I305">
         <f t="shared" si="4"/>
-        <v>187495.83546877338</v>
+        <v>23436.979433596673</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
@@ -9634,7 +9634,7 @@
       </c>
       <c r="I306">
         <f t="shared" si="4"/>
-        <v>161527.21492177009</v>
+        <v>20190.901865221262</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
@@ -9664,7 +9664,7 @@
       </c>
       <c r="I307">
         <f t="shared" si="4"/>
-        <v>183706.58574593073</v>
+        <v>22963.323218241341</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
@@ -9694,7 +9694,7 @@
       </c>
       <c r="I308">
         <f t="shared" si="4"/>
-        <v>185821.29068353152</v>
+        <v>23227.66133544144</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
@@ -9724,7 +9724,7 @@
       </c>
       <c r="I309">
         <f t="shared" si="4"/>
-        <v>172443.77051793205</v>
+        <v>21555.471314741506</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
@@ -9754,7 +9754,7 @@
       </c>
       <c r="I310">
         <f t="shared" si="4"/>
-        <v>167817.88602430222</v>
+        <v>20977.235753037778</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="I311">
         <f t="shared" si="4"/>
-        <v>195622.6556868958</v>
+        <v>24452.831960861975</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
@@ -9814,7 +9814,7 @@
       </c>
       <c r="I312">
         <f t="shared" si="4"/>
-        <v>164461.85495824268</v>
+        <v>20557.731869780335</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
@@ -9844,7 +9844,7 @@
       </c>
       <c r="I313">
         <f t="shared" si="4"/>
-        <v>179237.22566083883</v>
+        <v>22404.653207604853</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
@@ -9874,7 +9874,7 @@
       </c>
       <c r="I314">
         <f t="shared" si="4"/>
-        <v>190813.12350107258</v>
+        <v>23851.640437634072</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
@@ -9904,7 +9904,7 @@
       </c>
       <c r="I315">
         <f t="shared" si="4"/>
-        <v>190218.61476535985</v>
+        <v>23777.326845669981</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
@@ -9934,7 +9934,7 @@
       </c>
       <c r="I316">
         <f t="shared" si="4"/>
-        <v>189877.68028386729</v>
+        <v>23734.710035483411</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
@@ -9964,7 +9964,7 @@
       </c>
       <c r="I317">
         <f t="shared" si="4"/>
-        <v>166664.34684774018</v>
+        <v>20833.043355967522</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
@@ -9994,7 +9994,7 @@
       </c>
       <c r="I318">
         <f t="shared" si="4"/>
-        <v>185429.94672154073</v>
+        <v>23178.743340192592</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="I319">
         <f t="shared" si="4"/>
-        <v>176793.55051984466</v>
+        <v>22099.193814980583</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
@@ -10054,7 +10054,7 @@
       </c>
       <c r="I320">
         <f t="shared" si="4"/>
-        <v>177986.81978506842</v>
+        <v>22248.352473133553</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
@@ -10084,7 +10084,7 @@
       </c>
       <c r="I321">
         <f t="shared" si="4"/>
-        <v>186343.45357954668</v>
+        <v>23292.931697443335</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
@@ -10114,7 +10114,7 @@
       </c>
       <c r="I322">
         <f t="shared" si="4"/>
-        <v>181590.65156595648</v>
+        <v>22698.831445744559</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
@@ -10143,8 +10143,8 @@
         <v>20.88</v>
       </c>
       <c r="I323">
-        <f t="shared" ref="I323:I386" si="5">(PI()* 4/3)*(G323*H323*H323)</f>
-        <v>185451.14783496168</v>
+        <f t="shared" ref="I323:I386" si="5">(PI()* 1/6)*(G323*H323*H323)</f>
+        <v>23181.39347937021</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
@@ -10174,7 +10174,7 @@
       </c>
       <c r="I324">
         <f t="shared" si="5"/>
-        <v>176379.10756642293</v>
+        <v>22047.388445802866</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
@@ -10204,7 +10204,7 @@
       </c>
       <c r="I325">
         <f t="shared" si="5"/>
-        <v>178031.63916586438</v>
+        <v>22253.954895733048</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
@@ -10234,7 +10234,7 @@
       </c>
       <c r="I326">
         <f t="shared" si="5"/>
-        <v>183249.28781190023</v>
+        <v>22906.160976487528</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="I327">
         <f t="shared" si="5"/>
-        <v>170043.45132428885</v>
+        <v>21255.431415536106</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
@@ -10294,7 +10294,7 @@
       </c>
       <c r="I328">
         <f t="shared" si="5"/>
-        <v>181536.40963982494</v>
+        <v>22692.051204978117</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
@@ -10324,7 +10324,7 @@
       </c>
       <c r="I329">
         <f t="shared" si="5"/>
-        <v>167718.8666681085</v>
+        <v>20964.858333513563</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -10354,7 +10354,7 @@
       </c>
       <c r="I330">
         <f t="shared" si="5"/>
-        <v>165846.17982464741</v>
+        <v>20730.772478080926</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
@@ -10384,7 +10384,7 @@
       </c>
       <c r="I331">
         <f t="shared" si="5"/>
-        <v>192892.49053949106</v>
+        <v>24111.561317436383</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
@@ -10414,7 +10414,7 @@
       </c>
       <c r="I332">
         <f t="shared" si="5"/>
-        <v>147700.03579736163</v>
+        <v>18462.504474670204</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
@@ -10444,7 +10444,7 @@
       </c>
       <c r="I333">
         <f t="shared" si="5"/>
-        <v>189008.93581816656</v>
+        <v>23626.11697727082</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
@@ -10474,7 +10474,7 @@
       </c>
       <c r="I334">
         <f t="shared" si="5"/>
-        <v>177685.81844384296</v>
+        <v>22210.72730548037</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="I335">
         <f t="shared" si="5"/>
-        <v>159533.7842528685</v>
+        <v>19941.723031608562</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -10534,7 +10534,7 @@
       </c>
       <c r="I336">
         <f t="shared" si="5"/>
-        <v>194711.87384635751</v>
+        <v>24338.984230794689</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
@@ -10564,7 +10564,7 @@
       </c>
       <c r="I337">
         <f t="shared" si="5"/>
-        <v>168757.46538699698</v>
+        <v>21094.683173374622</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
@@ -10594,7 +10594,7 @@
       </c>
       <c r="I338">
         <f t="shared" si="5"/>
-        <v>184614.93011269366</v>
+        <v>23076.866264086708</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
@@ -10624,7 +10624,7 @@
       </c>
       <c r="I339">
         <f t="shared" si="5"/>
-        <v>176676.41348153158</v>
+        <v>22084.551685191447</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
@@ -10654,7 +10654,7 @@
       </c>
       <c r="I340">
         <f t="shared" si="5"/>
-        <v>189708.24131152933</v>
+        <v>23713.530163941166</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
@@ -10684,7 +10684,7 @@
       </c>
       <c r="I341">
         <f t="shared" si="5"/>
-        <v>157818.49924801817</v>
+        <v>19727.312406002271</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
@@ -10714,7 +10714,7 @@
       </c>
       <c r="I342">
         <f t="shared" si="5"/>
-        <v>184977.72691232976</v>
+        <v>23122.21586404122</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.3">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="I343">
         <f t="shared" si="5"/>
-        <v>187840.92574955898</v>
+        <v>23480.115718694873</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
@@ -10774,7 +10774,7 @@
       </c>
       <c r="I344">
         <f t="shared" si="5"/>
-        <v>169752.12493651905</v>
+        <v>21219.015617064881</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
@@ -10804,7 +10804,7 @@
       </c>
       <c r="I345">
         <f t="shared" si="5"/>
-        <v>175955.16972307005</v>
+        <v>21994.396215383756</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
@@ -10834,7 +10834,7 @@
       </c>
       <c r="I346">
         <f t="shared" si="5"/>
-        <v>197138.98682085235</v>
+        <v>24642.373352606544</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
@@ -10864,7 +10864,7 @@
       </c>
       <c r="I347">
         <f t="shared" si="5"/>
-        <v>191422.63442241406</v>
+        <v>23927.829302801758</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.3">
@@ -10894,7 +10894,7 @@
       </c>
       <c r="I348">
         <f t="shared" si="5"/>
-        <v>177847.36967708665</v>
+        <v>22230.921209635831</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
@@ -10924,7 +10924,7 @@
       </c>
       <c r="I349">
         <f t="shared" si="5"/>
-        <v>200340.91075799178</v>
+        <v>25042.613844748972</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.3">
@@ -10954,7 +10954,7 @@
       </c>
       <c r="I350">
         <f t="shared" si="5"/>
-        <v>193164.08501106026</v>
+        <v>24145.510626382533</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.3">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="I351">
         <f t="shared" si="5"/>
-        <v>202070.96120223729</v>
+        <v>25258.870150279661</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
@@ -11014,7 +11014,7 @@
       </c>
       <c r="I352">
         <f t="shared" si="5"/>
-        <v>163996.67738204941</v>
+        <v>20499.584672756177</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.3">
@@ -11044,7 +11044,7 @@
       </c>
       <c r="I353">
         <f t="shared" si="5"/>
-        <v>201905.78292906555</v>
+        <v>25238.222866133194</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.3">
@@ -11074,7 +11074,7 @@
       </c>
       <c r="I354">
         <f t="shared" si="5"/>
-        <v>178669.74152088436</v>
+        <v>22333.717690110545</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.3">
@@ -11104,7 +11104,7 @@
       </c>
       <c r="I355">
         <f t="shared" si="5"/>
-        <v>188187.96250669847</v>
+        <v>23523.495313337309</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.3">
@@ -11134,7 +11134,7 @@
       </c>
       <c r="I356">
         <f t="shared" si="5"/>
-        <v>184432.23867103853</v>
+        <v>23054.029833879817</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.3">
@@ -11164,7 +11164,7 @@
       </c>
       <c r="I357">
         <f t="shared" si="5"/>
-        <v>189235.16541954657</v>
+        <v>23654.395677443321</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.3">
@@ -11194,7 +11194,7 @@
       </c>
       <c r="I358">
         <f t="shared" si="5"/>
-        <v>196071.49545657079</v>
+        <v>24508.936932071349</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.3">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="I359">
         <f t="shared" si="5"/>
-        <v>185306.41474937537</v>
+        <v>23163.301843671921</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.3">
@@ -11254,7 +11254,7 @@
       </c>
       <c r="I360">
         <f t="shared" si="5"/>
-        <v>187694.12823547545</v>
+        <v>23461.766029434431</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.3">
@@ -11284,7 +11284,7 @@
       </c>
       <c r="I361">
         <f t="shared" si="5"/>
-        <v>171536.81093588928</v>
+        <v>21442.10136698616</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.3">
@@ -11314,7 +11314,7 @@
       </c>
       <c r="I362">
         <f t="shared" si="5"/>
-        <v>140262.02246476195</v>
+        <v>17532.752808095243</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.3">
@@ -11344,7 +11344,7 @@
       </c>
       <c r="I363">
         <f t="shared" si="5"/>
-        <v>166366.61738729879</v>
+        <v>20795.827173412348</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.3">
@@ -11374,7 +11374,7 @@
       </c>
       <c r="I364">
         <f t="shared" si="5"/>
-        <v>148505.64827479483</v>
+        <v>18563.206034349354</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.3">
@@ -11404,7 +11404,7 @@
       </c>
       <c r="I365">
         <f t="shared" si="5"/>
-        <v>133289.30302687068</v>
+        <v>16661.162878358835</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.3">
@@ -11434,7 +11434,7 @@
       </c>
       <c r="I366">
         <f t="shared" si="5"/>
-        <v>149303.16041946452</v>
+        <v>18662.895052433065</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.3">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="I367">
         <f t="shared" si="5"/>
-        <v>107073.04248891903</v>
+        <v>13384.130311114879</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.3">
@@ -11494,7 +11494,7 @@
       </c>
       <c r="I368">
         <f t="shared" si="5"/>
-        <v>139103.70705367922</v>
+        <v>17387.963381709902</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.3">
@@ -11524,7 +11524,7 @@
       </c>
       <c r="I369">
         <f t="shared" si="5"/>
-        <v>144661.86472997523</v>
+        <v>18082.733091246904</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.3">
@@ -11554,7 +11554,7 @@
       </c>
       <c r="I370">
         <f t="shared" si="5"/>
-        <v>126463.58987236682</v>
+        <v>15807.948734045853</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.3">
@@ -11584,7 +11584,7 @@
       </c>
       <c r="I371">
         <f t="shared" si="5"/>
-        <v>147359.2802651755</v>
+        <v>18419.910033146938</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.3">
@@ -11614,7 +11614,7 @@
       </c>
       <c r="I372">
         <f t="shared" si="5"/>
-        <v>136616.62301902595</v>
+        <v>17077.077877378244</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.3">
@@ -11644,7 +11644,7 @@
       </c>
       <c r="I373">
         <f t="shared" si="5"/>
-        <v>151359.43962120049</v>
+        <v>18919.929952650062</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.3">
@@ -11674,7 +11674,7 @@
       </c>
       <c r="I374">
         <f t="shared" si="5"/>
-        <v>120377.36577831503</v>
+        <v>15047.170722289378</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.3">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="I375">
         <f t="shared" si="5"/>
-        <v>133848.67027158514</v>
+        <v>16731.083783948143</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.3">
@@ -11734,7 +11734,7 @@
       </c>
       <c r="I376">
         <f t="shared" si="5"/>
-        <v>120689.39432338299</v>
+        <v>15086.174290422874</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.3">
@@ -11764,7 +11764,7 @@
       </c>
       <c r="I377">
         <f t="shared" si="5"/>
-        <v>147073.52918648985</v>
+        <v>18384.191148311231</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.3">
@@ -11794,7 +11794,7 @@
       </c>
       <c r="I378">
         <f t="shared" si="5"/>
-        <v>132639.64991112071</v>
+        <v>16579.956238890089</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.3">
@@ -11824,7 +11824,7 @@
       </c>
       <c r="I379">
         <f t="shared" si="5"/>
-        <v>135347.09687001197</v>
+        <v>16918.387108751496</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.3">
@@ -11854,7 +11854,7 @@
       </c>
       <c r="I380">
         <f t="shared" si="5"/>
-        <v>128282.8686270297</v>
+        <v>16035.358578378713</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.3">
@@ -11884,7 +11884,7 @@
       </c>
       <c r="I381">
         <f t="shared" si="5"/>
-        <v>116105.93094385015</v>
+        <v>14513.241367981269</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.3">
@@ -11914,7 +11914,7 @@
       </c>
       <c r="I382">
         <f t="shared" si="5"/>
-        <v>140397.83017671085</v>
+        <v>17549.728772088856</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.3">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="I383">
         <f t="shared" si="5"/>
-        <v>107345.4766872606</v>
+        <v>13418.184585907575</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.3">
@@ -11974,7 +11974,7 @@
       </c>
       <c r="I384">
         <f t="shared" si="5"/>
-        <v>140415.02544533924</v>
+        <v>17551.878180667405</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.3">
@@ -12004,7 +12004,7 @@
       </c>
       <c r="I385">
         <f t="shared" si="5"/>
-        <v>143691.07585175949</v>
+        <v>17961.384481469937</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.3">
@@ -12034,7 +12034,7 @@
       </c>
       <c r="I386">
         <f t="shared" si="5"/>
-        <v>153747.26801000457</v>
+        <v>19218.408501250571</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.3">
@@ -12063,8 +12063,8 @@
         <v>18.93</v>
       </c>
       <c r="I387">
-        <f t="shared" ref="I387:I450" si="6">(PI()* 4/3)*(G387*H387*H387)</f>
-        <v>142177.71382026462</v>
+        <f t="shared" ref="I387:I450" si="6">(PI()* 1/6)*(G387*H387*H387)</f>
+        <v>17772.214227533077</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.3">
@@ -12094,7 +12094,7 @@
       </c>
       <c r="I388">
         <f t="shared" si="6"/>
-        <v>127585.10756155942</v>
+        <v>15948.138445194927</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.3">
@@ -12124,7 +12124,7 @@
       </c>
       <c r="I389">
         <f t="shared" si="6"/>
-        <v>157449.04721472898</v>
+        <v>19681.130901841123</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.3">
@@ -12154,7 +12154,7 @@
       </c>
       <c r="I390">
         <f t="shared" si="6"/>
-        <v>150546.67182301797</v>
+        <v>18818.333977877246</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.3">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="I391">
         <f t="shared" si="6"/>
-        <v>129381.07261997183</v>
+        <v>16172.634077496479</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.3">
@@ -12214,7 +12214,7 @@
       </c>
       <c r="I392">
         <f t="shared" si="6"/>
-        <v>167397.78562799812</v>
+        <v>20924.723203499765</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.3">
@@ -12244,7 +12244,7 @@
       </c>
       <c r="I393">
         <f t="shared" si="6"/>
-        <v>174943.11521691291</v>
+        <v>21867.889402114113</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.3">
@@ -12274,7 +12274,7 @@
       </c>
       <c r="I394">
         <f t="shared" si="6"/>
-        <v>160669.56019436067</v>
+        <v>20083.695024295084</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.3">
@@ -12304,7 +12304,7 @@
       </c>
       <c r="I395">
         <f t="shared" si="6"/>
-        <v>195372.06219254038</v>
+        <v>24421.507774067548</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.3">
@@ -12334,7 +12334,7 @@
       </c>
       <c r="I396">
         <f t="shared" si="6"/>
-        <v>211545.62962726588</v>
+        <v>26443.203703408235</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.3">
@@ -12364,7 +12364,7 @@
       </c>
       <c r="I397">
         <f t="shared" si="6"/>
-        <v>171753.9363986323</v>
+        <v>21469.242049829038</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.3">
@@ -12394,7 +12394,7 @@
       </c>
       <c r="I398">
         <f t="shared" si="6"/>
-        <v>182013.20845314345</v>
+        <v>22751.651056642932</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.3">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="I399">
         <f t="shared" si="6"/>
-        <v>188575.09582975478</v>
+        <v>23571.886978719347</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.3">
@@ -12454,7 +12454,7 @@
       </c>
       <c r="I400">
         <f t="shared" si="6"/>
-        <v>176118.05170145154</v>
+        <v>22014.756462681442</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.3">
@@ -12484,7 +12484,7 @@
       </c>
       <c r="I401">
         <f t="shared" si="6"/>
-        <v>184812.47115491677</v>
+        <v>23101.558894364596</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.3">
@@ -12514,7 +12514,7 @@
       </c>
       <c r="I402">
         <f t="shared" si="6"/>
-        <v>193519.4240174063</v>
+        <v>24189.928002175788</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.3">
@@ -12544,7 +12544,7 @@
       </c>
       <c r="I403">
         <f t="shared" si="6"/>
-        <v>169097.85820765045</v>
+        <v>21137.232275956307</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.3">
@@ -12574,7 +12574,7 @@
       </c>
       <c r="I404">
         <f t="shared" si="6"/>
-        <v>167275.0156051486</v>
+        <v>20909.376950643575</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.3">
@@ -12604,7 +12604,7 @@
       </c>
       <c r="I405">
         <f t="shared" si="6"/>
-        <v>201013.77685472049</v>
+        <v>25126.722106840061</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.3">
@@ -12634,7 +12634,7 @@
       </c>
       <c r="I406">
         <f t="shared" si="6"/>
-        <v>214062.05214957535</v>
+        <v>26757.756518696919</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.3">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="I407">
         <f t="shared" si="6"/>
-        <v>181210.67372282356</v>
+        <v>22651.334215352945</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.3">
@@ -12694,7 +12694,7 @@
       </c>
       <c r="I408">
         <f t="shared" si="6"/>
-        <v>175699.21155294596</v>
+        <v>21962.401444118244</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.3">
@@ -12724,7 +12724,7 @@
       </c>
       <c r="I409">
         <f t="shared" si="6"/>
-        <v>183753.37547080722</v>
+        <v>22969.171933850903</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.3">
@@ -12754,7 +12754,7 @@
       </c>
       <c r="I410">
         <f t="shared" si="6"/>
-        <v>186331.03488891979</v>
+        <v>23291.379361114974</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.3">
@@ -12784,7 +12784,7 @@
       </c>
       <c r="I411">
         <f t="shared" si="6"/>
-        <v>199064.77019927392</v>
+        <v>24883.09627490924</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.3">
@@ -12814,7 +12814,7 @@
       </c>
       <c r="I412">
         <f t="shared" si="6"/>
-        <v>182210.08608315157</v>
+        <v>22776.260760393947</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.3">
@@ -12844,7 +12844,7 @@
       </c>
       <c r="I413">
         <f t="shared" si="6"/>
-        <v>189851.104085534</v>
+        <v>23731.38801069175</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.3">
@@ -12874,7 +12874,7 @@
       </c>
       <c r="I414">
         <f t="shared" si="6"/>
-        <v>202160.61276896085</v>
+        <v>25270.076596120107</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.3">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="I415">
         <f t="shared" si="6"/>
-        <v>189540.72682858547</v>
+        <v>23692.590853573183</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.3">
@@ -12934,7 +12934,7 @@
       </c>
       <c r="I416">
         <f t="shared" si="6"/>
-        <v>220920.29972556437</v>
+        <v>27615.037465695546</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.3">
@@ -12964,7 +12964,7 @@
       </c>
       <c r="I417">
         <f t="shared" si="6"/>
-        <v>197583.36994813292</v>
+        <v>24697.921243516616</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.3">
@@ -12994,7 +12994,7 @@
       </c>
       <c r="I418">
         <f t="shared" si="6"/>
-        <v>194553.4939378002</v>
+        <v>24319.186742225025</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.3">
@@ -13024,7 +13024,7 @@
       </c>
       <c r="I419">
         <f t="shared" si="6"/>
-        <v>169221.39215273599</v>
+        <v>21152.674019091999</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.3">
@@ -13054,7 +13054,7 @@
       </c>
       <c r="I420">
         <f t="shared" si="6"/>
-        <v>198395.00283968615</v>
+        <v>24799.375354960768</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.3">
@@ -13084,7 +13084,7 @@
       </c>
       <c r="I421">
         <f t="shared" si="6"/>
-        <v>201886.53466733708</v>
+        <v>25235.816833417135</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.3">
@@ -13114,7 +13114,7 @@
       </c>
       <c r="I422">
         <f t="shared" si="6"/>
-        <v>152432.57868942729</v>
+        <v>19054.072336178411</v>
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.3">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="I423">
         <f t="shared" si="6"/>
-        <v>153630.2262750463</v>
+        <v>19203.778284380787</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.3">
@@ -13174,7 +13174,7 @@
       </c>
       <c r="I424">
         <f t="shared" si="6"/>
-        <v>156953.37947652294</v>
+        <v>19619.172434565367</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.3">
@@ -13204,7 +13204,7 @@
       </c>
       <c r="I425">
         <f t="shared" si="6"/>
-        <v>144060.97566672161</v>
+        <v>18007.621958340202</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.3">
@@ -13234,7 +13234,7 @@
       </c>
       <c r="I426">
         <f t="shared" si="6"/>
-        <v>146019.62796247014</v>
+        <v>18252.453495308768</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.3">
@@ -13264,7 +13264,7 @@
       </c>
       <c r="I427">
         <f t="shared" si="6"/>
-        <v>136575.04583724673</v>
+        <v>17071.880729655841</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.3">
@@ -13294,7 +13294,7 @@
       </c>
       <c r="I428">
         <f t="shared" si="6"/>
-        <v>163577.18207324555</v>
+        <v>20447.147759155694</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.3">
@@ -13324,7 +13324,7 @@
       </c>
       <c r="I429">
         <f t="shared" si="6"/>
-        <v>145277.79924906039</v>
+        <v>18159.724906132549</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.3">
@@ -13354,7 +13354,7 @@
       </c>
       <c r="I430">
         <f t="shared" si="6"/>
-        <v>151525.80454931574</v>
+        <v>18940.725568664468</v>
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.3">
@@ -13384,7 +13384,7 @@
       </c>
       <c r="I431">
         <f t="shared" si="6"/>
-        <v>160639.87913487514</v>
+        <v>20079.984891859393</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.3">
@@ -13414,7 +13414,7 @@
       </c>
       <c r="I432">
         <f t="shared" si="6"/>
-        <v>156771.43918129374</v>
+        <v>19596.429897661717</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.3">
@@ -13444,7 +13444,7 @@
       </c>
       <c r="I433">
         <f t="shared" si="6"/>
-        <v>149582.03453507632</v>
+        <v>18697.75431688454</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.3">
@@ -13474,7 +13474,7 @@
       </c>
       <c r="I434">
         <f t="shared" si="6"/>
-        <v>155195.90727637586</v>
+        <v>19399.488409546982</v>
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.3">
@@ -13504,7 +13504,7 @@
       </c>
       <c r="I435">
         <f t="shared" si="6"/>
-        <v>140564.4861880462</v>
+        <v>17570.560773505775</v>
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.3">
@@ -13534,7 +13534,7 @@
       </c>
       <c r="I436">
         <f t="shared" si="6"/>
-        <v>166681.04475198608</v>
+        <v>20835.130593998259</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.3">
@@ -13564,7 +13564,7 @@
       </c>
       <c r="I437">
         <f t="shared" si="6"/>
-        <v>150064.44267045546</v>
+        <v>18758.055333806933</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.3">
@@ -13594,7 +13594,7 @@
       </c>
       <c r="I438">
         <f t="shared" si="6"/>
-        <v>170719.83806567441</v>
+        <v>21339.979758209302</v>
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.3">
@@ -13624,7 +13624,7 @@
       </c>
       <c r="I439">
         <f t="shared" si="6"/>
-        <v>148507.68486459245</v>
+        <v>18563.460608074056</v>
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.3">
@@ -13654,7 +13654,7 @@
       </c>
       <c r="I440">
         <f t="shared" si="6"/>
-        <v>163076.90415254011</v>
+        <v>20384.613019067514</v>
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.3">
@@ -13684,7 +13684,7 @@
       </c>
       <c r="I441">
         <f t="shared" si="6"/>
-        <v>144138.83918612768</v>
+        <v>18017.354898265959</v>
       </c>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.3">
@@ -13714,7 +13714,7 @@
       </c>
       <c r="I442">
         <f t="shared" si="6"/>
-        <v>131374.88682288217</v>
+        <v>16421.860852860271</v>
       </c>
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.3">
@@ -13744,7 +13744,7 @@
       </c>
       <c r="I443">
         <f t="shared" si="6"/>
-        <v>151241.77849821214</v>
+        <v>18905.222312276517</v>
       </c>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.3">
@@ -13774,7 +13774,7 @@
       </c>
       <c r="I444">
         <f t="shared" si="6"/>
-        <v>160044.82202369269</v>
+        <v>20005.602752961586</v>
       </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.3">
@@ -13804,7 +13804,7 @@
       </c>
       <c r="I445">
         <f t="shared" si="6"/>
-        <v>147517.79708434062</v>
+        <v>18439.724635542578</v>
       </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.3">
@@ -13834,7 +13834,7 @@
       </c>
       <c r="I446">
         <f t="shared" si="6"/>
-        <v>153162.21200823842</v>
+        <v>19145.276501029803</v>
       </c>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.3">
@@ -13864,7 +13864,7 @@
       </c>
       <c r="I447">
         <f t="shared" si="6"/>
-        <v>158954.93004402705</v>
+        <v>19869.366255503381</v>
       </c>
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.3">
@@ -13894,7 +13894,7 @@
       </c>
       <c r="I448">
         <f t="shared" si="6"/>
-        <v>113365.622113177</v>
+        <v>14170.702764147125</v>
       </c>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.3">
@@ -13924,7 +13924,7 @@
       </c>
       <c r="I449">
         <f t="shared" si="6"/>
-        <v>166639.54235267828</v>
+        <v>20829.942794084785</v>
       </c>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.3">
@@ -13954,7 +13954,7 @@
       </c>
       <c r="I450">
         <f t="shared" si="6"/>
-        <v>151457.78241656662</v>
+        <v>18932.222802070828</v>
       </c>
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.3">
@@ -13983,8 +13983,8 @@
         <v>18.079999999999998</v>
       </c>
       <c r="I451">
-        <f t="shared" ref="I451:I481" si="7">(PI()* 4/3)*(G451*H451*H451)</f>
-        <v>134036.71949844903</v>
+        <f t="shared" ref="I451:I481" si="7">(PI()* 1/6)*(G451*H451*H451)</f>
+        <v>16754.589937306129</v>
       </c>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.3">
@@ -14014,7 +14014,7 @@
       </c>
       <c r="I452">
         <f t="shared" si="7"/>
-        <v>129027.21724960602</v>
+        <v>16128.402156200753</v>
       </c>
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.3">
@@ -14044,7 +14044,7 @@
       </c>
       <c r="I453">
         <f t="shared" si="7"/>
-        <v>159704.03983823454</v>
+        <v>19963.004979779318</v>
       </c>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.3">
@@ -14074,7 +14074,7 @@
       </c>
       <c r="I454">
         <f t="shared" si="7"/>
-        <v>155118.24701382575</v>
+        <v>19389.780876728219</v>
       </c>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.3">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="I455">
         <f t="shared" si="7"/>
-        <v>159498.34550018454</v>
+        <v>19937.293187523068</v>
       </c>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.3">
@@ -14134,7 +14134,7 @@
       </c>
       <c r="I456">
         <f t="shared" si="7"/>
-        <v>181261.29036413025</v>
+        <v>22657.661295516282</v>
       </c>
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.3">
@@ -14164,7 +14164,7 @@
       </c>
       <c r="I457">
         <f t="shared" si="7"/>
-        <v>148070.77201319669</v>
+        <v>18508.846501649587</v>
       </c>
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.3">
@@ -14194,7 +14194,7 @@
       </c>
       <c r="I458">
         <f t="shared" si="7"/>
-        <v>142502.76151903532</v>
+        <v>17812.845189879416</v>
       </c>
     </row>
     <row r="459" spans="1:9" x14ac:dyDescent="0.3">
@@ -14224,7 +14224,7 @@
       </c>
       <c r="I459">
         <f t="shared" si="7"/>
-        <v>161918.95205617588</v>
+        <v>20239.869007021985</v>
       </c>
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.3">
@@ -14254,7 +14254,7 @@
       </c>
       <c r="I460">
         <f t="shared" si="7"/>
-        <v>157871.88435711339</v>
+        <v>19733.985544639174</v>
       </c>
     </row>
     <row r="461" spans="1:9" x14ac:dyDescent="0.3">
@@ -14284,7 +14284,7 @@
       </c>
       <c r="I461">
         <f t="shared" si="7"/>
-        <v>150409.65151075902</v>
+        <v>18801.206438844878</v>
       </c>
     </row>
     <row r="462" spans="1:9" x14ac:dyDescent="0.3">
@@ -14314,7 +14314,7 @@
       </c>
       <c r="I462">
         <f t="shared" si="7"/>
-        <v>158385.20258491213</v>
+        <v>19798.150323114016</v>
       </c>
     </row>
     <row r="463" spans="1:9" x14ac:dyDescent="0.3">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="I463">
         <f t="shared" si="7"/>
-        <v>149248.86909074127</v>
+        <v>18656.108636342658</v>
       </c>
     </row>
     <row r="464" spans="1:9" x14ac:dyDescent="0.3">
@@ -14374,7 +14374,7 @@
       </c>
       <c r="I464">
         <f t="shared" si="7"/>
-        <v>149504.89638428131</v>
+        <v>18688.112048035164</v>
       </c>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.3">
@@ -14404,7 +14404,7 @@
       </c>
       <c r="I465">
         <f t="shared" si="7"/>
-        <v>148843.27052907596</v>
+        <v>18605.408816134495</v>
       </c>
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.3">
@@ -14434,7 +14434,7 @@
       </c>
       <c r="I466">
         <f t="shared" si="7"/>
-        <v>149416.81416456302</v>
+        <v>18677.101770570378</v>
       </c>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.3">
@@ -14464,7 +14464,7 @@
       </c>
       <c r="I467">
         <f t="shared" si="7"/>
-        <v>163670.94579625718</v>
+        <v>20458.868224532147</v>
       </c>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.3">
@@ -14494,7 +14494,7 @@
       </c>
       <c r="I468">
         <f t="shared" si="7"/>
-        <v>156311.88775353125</v>
+        <v>19538.985969191406</v>
       </c>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.3">
@@ -14524,7 +14524,7 @@
       </c>
       <c r="I469">
         <f t="shared" si="7"/>
-        <v>149493.97594013484</v>
+        <v>18686.746992516855</v>
       </c>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.3">
@@ -14554,7 +14554,7 @@
       </c>
       <c r="I470">
         <f t="shared" si="7"/>
-        <v>157320.85840531896</v>
+        <v>19665.107300664869</v>
       </c>
     </row>
     <row r="471" spans="1:9" x14ac:dyDescent="0.3">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="I471">
         <f t="shared" si="7"/>
-        <v>171120.00539169472</v>
+        <v>21390.00067396184</v>
       </c>
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.3">
@@ -14614,7 +14614,7 @@
       </c>
       <c r="I472">
         <f t="shared" si="7"/>
-        <v>168988.57287226952</v>
+        <v>21123.57160903369</v>
       </c>
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.3">
@@ -14644,7 +14644,7 @@
       </c>
       <c r="I473">
         <f t="shared" si="7"/>
-        <v>160148.42507247653</v>
+        <v>20018.553134059566</v>
       </c>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.3">
@@ -14674,7 +14674,7 @@
       </c>
       <c r="I474">
         <f t="shared" si="7"/>
-        <v>191504.11264576096</v>
+        <v>23938.014080720121</v>
       </c>
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.3">
@@ -14704,7 +14704,7 @@
       </c>
       <c r="I475">
         <f t="shared" si="7"/>
-        <v>151097.26174269602</v>
+        <v>18887.157717837003</v>
       </c>
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.3">
@@ -14734,7 +14734,7 @@
       </c>
       <c r="I476">
         <f t="shared" si="7"/>
-        <v>166619.74138845995</v>
+        <v>20827.467673557494</v>
       </c>
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.3">
@@ -14764,7 +14764,7 @@
       </c>
       <c r="I477">
         <f t="shared" si="7"/>
-        <v>140934.85010420781</v>
+        <v>17616.856263025977</v>
       </c>
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.3">
@@ -14794,7 +14794,7 @@
       </c>
       <c r="I478">
         <f t="shared" si="7"/>
-        <v>140062.17146391491</v>
+        <v>17507.771432989364</v>
       </c>
     </row>
     <row r="479" spans="1:9" x14ac:dyDescent="0.3">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="I479">
         <f t="shared" si="7"/>
-        <v>150548.6502053868</v>
+        <v>18818.58127567335</v>
       </c>
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.3">
@@ -14854,7 +14854,7 @@
       </c>
       <c r="I480">
         <f t="shared" si="7"/>
-        <v>140393.20992435981</v>
+        <v>17549.151240544976</v>
       </c>
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.3">
@@ -14884,7 +14884,7 @@
       </c>
       <c r="I481">
         <f t="shared" si="7"/>
-        <v>140712.59468874405</v>
+        <v>17589.074336093006</v>
       </c>
     </row>
   </sheetData>
